--- a/data/AMP No Nitrogen - NH4 Additions to Quantify N Contamination.xlsx
+++ b/data/AMP No Nitrogen - NH4 Additions to Quantify N Contamination.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkm/Documents/Talmy_research/Zinser_and_Ben/Project_1_nutrient_additions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkm/Documents/Talmy_research/Zinser_lab/Projects/N_focused/Project_1_nutrient_additions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE2EEA6-FEA3-754C-BBC8-83745B10D79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D346BA9E-4976-E34F-B2AA-978D6E6846A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="1040" windowWidth="23900" windowHeight="14080" activeTab="2" xr2:uid="{3787FD8E-FF35-4CFB-9ADE-A1372B15C76F}"/>
+    <workbookView xWindow="3340" yWindow="1040" windowWidth="23900" windowHeight="14080" activeTab="1" xr2:uid="{3787FD8E-FF35-4CFB-9ADE-A1372B15C76F}"/>
   </bookViews>
   <sheets>
     <sheet name="AMP No N Quant NH4 Trial 3" sheetId="1" r:id="rId1"/>
@@ -447,6 +447,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -454,15 +463,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -857,131 +857,131 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="26" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="26" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="26" t="s">
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="26" t="s">
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="26" t="s">
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="28"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="31"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="26" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27" t="s">
+      <c r="I3" s="30"/>
+      <c r="J3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="26" t="s">
+      <c r="M3" s="31"/>
+      <c r="N3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27" t="s">
+      <c r="O3" s="30"/>
+      <c r="P3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27" t="s">
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="28"/>
-      <c r="T3" s="26" t="s">
+      <c r="S3" s="31"/>
+      <c r="T3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27" t="s">
+      <c r="U3" s="30"/>
+      <c r="V3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27" t="s">
+      <c r="W3" s="30"/>
+      <c r="X3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="26" t="s">
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27" t="s">
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27" t="s">
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="26" t="s">
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27" t="s">
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27" t="s">
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="28"/>
+      <c r="AK3" s="31"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -2475,36 +2475,36 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="29" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="29" t="s">
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="29" t="s">
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L18" s="30"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="29" t="s">
+      <c r="L18" s="26"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="30"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="29" t="s">
+      <c r="O18" s="26"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R18" s="30"/>
-      <c r="S18" s="31"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="27"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -3769,30 +3769,30 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="30" t="s">
+      <c r="C34" s="27"/>
+      <c r="D34" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="30" t="s">
+      <c r="E34" s="27"/>
+      <c r="F34" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="30" t="s">
+      <c r="G34" s="27"/>
+      <c r="H34" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="30" t="s">
+      <c r="I34" s="27"/>
+      <c r="J34" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="31"/>
-      <c r="L34" s="30" t="s">
+      <c r="K34" s="27"/>
+      <c r="L34" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="M34" s="31"/>
+      <c r="M34" s="27"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -4778,26 +4778,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AK2"/>
     <mergeCell ref="L3:M3"/>
@@ -4814,6 +4794,26 @@
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4823,7 +4823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBCB18-9485-4D47-9582-313D32D6E65C}">
   <dimension ref="A1:AK15"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
@@ -4831,131 +4831,131 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="10"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="26" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="26" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="26" t="s">
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="26" t="s">
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="26" t="s">
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="28"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="31"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="26" t="s">
+      <c r="G2" s="31"/>
+      <c r="H2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="26" t="s">
+      <c r="M2" s="31"/>
+      <c r="N2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27" t="s">
+      <c r="O2" s="30"/>
+      <c r="P2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27" t="s">
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="28"/>
-      <c r="T2" s="26" t="s">
+      <c r="S2" s="31"/>
+      <c r="T2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27" t="s">
+      <c r="U2" s="30"/>
+      <c r="V2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27" t="s">
+      <c r="W2" s="30"/>
+      <c r="X2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="26" t="s">
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27" t="s">
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27" t="s">
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="26" t="s">
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27" t="s">
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27" t="s">
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AK2" s="28"/>
+      <c r="AK2" s="31"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
@@ -6416,14 +6416,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="Z1:AE1"/>
     <mergeCell ref="AF1:AK1"/>
     <mergeCell ref="L2:M2"/>
@@ -6440,6 +6432,14 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6449,7 +6449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CD2424-D863-F54D-9F28-8797A24212D3}">
   <dimension ref="B3:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+    <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/data/AMP No Nitrogen - NH4 Additions to Quantify N Contamination.xlsx
+++ b/data/AMP No Nitrogen - NH4 Additions to Quantify N Contamination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkm/Documents/Talmy_research/Zinser_lab/Projects/N_focused/Project_1_nutrient_additions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D346BA9E-4976-E34F-B2AA-978D6E6846A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE4BB65-A8C1-C34E-A886-527B3DE6F706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="1040" windowWidth="23900" windowHeight="14080" activeTab="1" xr2:uid="{3787FD8E-FF35-4CFB-9ADE-A1372B15C76F}"/>
+    <workbookView xWindow="3340" yWindow="1040" windowWidth="23900" windowHeight="14080" xr2:uid="{3787FD8E-FF35-4CFB-9ADE-A1372B15C76F}"/>
   </bookViews>
   <sheets>
     <sheet name="AMP No N Quant NH4 Trial 3" sheetId="1" r:id="rId1"/>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF21520F-4E0E-4730-B161-A7997D96884F}">
   <dimension ref="A1:AK48"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AK16"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4823,7 +4823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBCB18-9485-4D47-9582-313D32D6E65C}">
   <dimension ref="A1:AK15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>

--- a/data/AMP No Nitrogen - NH4 Additions to Quantify N Contamination.xlsx
+++ b/data/AMP No Nitrogen - NH4 Additions to Quantify N Contamination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkm/Documents/Talmy_research/Zinser_lab/Projects/N_focused/Project_1_nutrient_additions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE4BB65-A8C1-C34E-A886-527B3DE6F706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0142F11-6510-484A-B998-309EAA23448E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3340" yWindow="1040" windowWidth="23900" windowHeight="14080" xr2:uid="{3787FD8E-FF35-4CFB-9ADE-A1372B15C76F}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Info" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -447,15 +448,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -463,6 +455,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -487,6 +488,2980 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'AMP No N Quant NH4 Trial 3'!$A$3:$AK$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B66-DA49-80B4-CD304A37AC23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'AMP No N Quant NH4 Trial 3'!$A$4:$AK$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9069.7768329684204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14182.952111418201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12762.889374926501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10636.715642029199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11775.402471019999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11485.898907257801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12482.449746579299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9927.0945666089992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9076.9222499630905</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11489.6718417804</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10492.2852636846</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8794.4973907861004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9785.2461802015205</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12336.097311559601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12053.9912449025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8368.5334772721108</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10637.481125030799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10780.5501286361</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12762.985481543899</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11348.1137076738</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10496.034505968701</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7800.4637404059004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10352.5328145154</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11770.909593848</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12338.368174651399</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12199.4876966996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10354.7637817739</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12054.092100141601</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11062.8322492963</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9500.6857864423091</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10494.594199073301</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8792.6945415221708</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10059.4076026197</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18154.201489610401</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11770.569811724599</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9775.9418590451005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9B66-DA49-80B4-CD304A37AC23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'AMP No N Quant NH4 Trial 3'!$A$5:$AK$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14733.7799694559</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13047.044031568401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18013.313881412902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14326.448004596699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14322.594358439301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16878.313268742</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16026.7627081059</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15175.9365471116</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15888.2301593988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13188.330055147</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11487.7874678762</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13757.5671583442</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16025.864213164499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15317.716458090699</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17735.435332399498</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13901.0728167131</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14326.561907489</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14044.983372052</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15459.6441908993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14324.931470272501</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14749.221120578301</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13471.617549456299</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15176.304835286999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13615.2466595524</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10495.248435826799</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15742.345736446299</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15599.2632099276</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15030.483024849</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14609.2964229506</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15460.446309752801</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14186.5431544606</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14753.3133583401</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15178.216411052101</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14024.6924969298</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14450.576951326901</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15456.5206019325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9B66-DA49-80B4-CD304A37AC23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'AMP No N Quant NH4 Trial 3'!$A$6:$AK$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51279.423020930903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52197.435067685103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45802.560801321903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45386.586133464698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56156.03197394</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54324.275058328902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56026.809977478399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55747.865200754102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55732.938988045498</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51341.1696315507</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59296.747665598399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51494.673322899398</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55887.4019774509</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54613.574243597199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47086.002264028299</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52491.527743286897</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51773.493942749403</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46813.7507902746</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62844.2558328655</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53913.7601734911</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52826.246685259197</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>58449.365017164098</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56725.495259663097</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>61704.257988140998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>58876.642736361602</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61128.421296398803</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55734.4545668504</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>52051.477805278199</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>61560.451341938402</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60262.645167838004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>60968.684640329397</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>56585.859412134501</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>54896.063594777501</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>58145.700290327899</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>48647.464680291901</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50789.886297901598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9B66-DA49-80B4-CD304A37AC23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'AMP No N Quant NH4 Trial 3'!$A$7:$AK$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76958.305053282194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80992.8911433061</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55320.526456513398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53915.0238498783</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81960.968641102401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79283.3325692207</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87384.388220124907</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88059.037160786102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82681.525534278102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80017.126502558298</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87366.7656823344</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88215.489223070399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82001.994421864001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93766.732343571799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76156.143863578996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80149.306383646894</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>69780.445543464404</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>71035.963537481002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89494.090826446496</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>96571.802407824303</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>89214.389503769606</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86392.649185688599</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>89910.624655553896</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>96737.730671703903</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>97711.995623069903</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100118.153602292</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>83555.067534695496</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>87206.729529200398</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>93459.476112977602</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>88651.647938036796</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>88203.237445944207</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74599.831117895606</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>76875.235018195701</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>78991.739229690895</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>78776.462125849706</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>78997.258440566293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9B66-DA49-80B4-CD304A37AC23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'AMP No N Quant NH4 Trial 3'!$A$8:$AK$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>184454.544692642</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175696.05594331099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75587.544607819305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72757.661525359305</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>171780.58764438401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>178625.26016434201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>184101.948073843</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>185332.54149278399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>195838.11688333601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>192895.980533864</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>188491.36029587299</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>194658.20321348999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>195500.29865603099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>186764.742809588</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>173511.704869707</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>158158.666197357</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>119314.320603439</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>129368.009047477</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>236538.63926085801</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>232050.318997833</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>224230.58330480699</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>221568.70041659501</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>196983.76101331299</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>203619.83947914999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>200751.24774235199</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>216208.163922976</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>170237.76265633301</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>161534.14948341099</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>208961.410385875</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>197165.93293665</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>181563.012179443</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>141013.471766003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>143079.18028306501</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>165588.682960687</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>141470.03012396401</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>142597.555211973</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9B66-DA49-80B4-CD304A37AC23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'AMP No N Quant NH4 Trial 3'!$A$9:$AK$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>831756.15038966294</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>806411.292338609</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160044.27208672199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>149561.22140158599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>806265.52161912306</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>795174.87883522804</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>925831.23357002903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>893012.42336558097</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>968254.65755907004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>933111.98310534901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>927909.71958057897</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>875563.20603228</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>925692.53141083103</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>890586.50509408803</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>837373.55606967502</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>878889.58679036901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>512237.13492592803</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>512986.54946702399</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1116136.88950172</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1128818.4471059099</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1154979.6108561801</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150155.5700423999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1014776.51602157</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>974722.23584125796</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1092341.4683461599</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1030788.51920117</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>709744.18796694698</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>758675.52096635802</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1007561.70018178</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>987862.528260277</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>859148.490199027</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>827074.66588335996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>661737.30883558397</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>666219.32259885198</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>685192.13798207405</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>687557.49432851095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9B66-DA49-80B4-CD304A37AC23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'AMP No N Quant NH4 Trial 3'!$A$10:$AK$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1573797.3815505398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1517244.41589193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>207122.40319755001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170212.446054623</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1529300.4289358901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1514303.5166541901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1804422.0176440699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1693093.4856467301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1687054.1560427099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1849046.9190380601</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1688969.2380347899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1831276.6951498899</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1731710.6419576001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1801826.6377905898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1551813.2441177301</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1529159.00551633</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>756120.59941978299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>900683.02978424006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2400187.5698582102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2357137.6114751799</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2078180.5927920802</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2477560.5176055003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2082105.71512825</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2054268.4308449998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2141074.4995222297</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2107988.1875087502</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1050912.7815714101</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1286884.8036200299</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2080859.55980228</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2443789.7413800103</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1431901.8340276</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1600918.9018349501</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1189435.6030952099</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1204572.68545698</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1295233.0161790501</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1131844.0931567298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9B66-DA49-80B4-CD304A37AC23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'AMP No N Quant NH4 Trial 3'!$A$11:$AK$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2826375.5786226699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2416700.23966779</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>273732.579155165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>218452.01159690801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2343795.5112159103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2528284.6472303998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2547786.92857916</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2486315.78410848</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2632350.5724480702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2584088.4675090499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2895739.2136646202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2654235.6425094903</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2585905.9617454298</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2706922.6487920298</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2166024.4999680999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2242725.6688318201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1202477.8758251001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1211993.3726669699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3504477.4879371603</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3517490.8021572698</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3506128.8007970103</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3430058.2314125798</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3240730.9585343301</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3044417.0399553198</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2907447.2181668598</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3085838.39637125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1531428.3829316199</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1554627.9591459001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2931537.4031632598</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2822525.4693408301</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2089450.5262254998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2166582.4118876401</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1581608.7998182999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1358019.9819173501</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1779329.1960990699</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1792709.34152692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-9B66-DA49-80B4-CD304A37AC23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'AMP No N Quant NH4 Trial 3'!$A$12:$AK$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5052985.2240858702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5230154.51863907</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>390145.61135097296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>347457.322207116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5449292.5346980998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7126133.6342462003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5986455.644105209</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6422103.9570371509</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4033553.3556017699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5537690.04452358</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4882033.9490782395</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5052955.0957271</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6491888.5799759803</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6135106.70637717</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4796846.2462795395</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5481605.80024058</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2729703.5655210498</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2561144.1470960397</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5611698.25842347</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5472968.01217122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8268544.8059833506</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8292230.1306142295</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6292110.5396721195</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7266408.6679826397</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6571718.6940325703</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6709479.8576382594</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3675354.0643149498</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3564396.84390481</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6680245.6019016495</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6713745.4639837602</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4811136.4337258702</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5265494.3885889603</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3520372.9792927103</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3450985.4211222799</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4178223.72052396</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4091678.2493449496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-9B66-DA49-80B4-CD304A37AC23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'AMP No N Quant NH4 Trial 3'!$A$13:$AK$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6066359.467685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4949593.0561548797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>834087.63014467095</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>845891.58459041594</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4888051.9634157699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5543446.7559389099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6569766.865253021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6548670.2793322103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4095745.0579143399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3932014.6531271604</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4149106.2605896397</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4479801.3949858705</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4532645.9408978298</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4032455.7790514496</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5265558.3968136199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4681922.49025576</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4257848.2511005197</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4188399.97657181</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17878667.390957899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17755468.879101899</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14534410.3194078</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15037649.836365899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30677157.171514101</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28824883.958706498</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15058058.464727601</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12551458.383713201</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>30677157.171514101</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>28824883.958706498</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20443127.284182001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19080682.885646898</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12556981.8137706</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10992086.9124378</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12556981.8137706</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10992086.9124378</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-9B66-DA49-80B4-CD304A37AC23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'AMP No N Quant NH4 Trial 3'!$A$14:$AK$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6862991.4592473302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6670793.6643470097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>708630.82511633995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>626431.74465258804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5152383.6794640301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5336550.9177666903</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6674195.3815302104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7349544.7140788203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4189170.2784820097</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4513695.5679346202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4376917.2675754605</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4346504.9384337096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4534356.5018092496</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4524865.9938311595</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5083020.07739559</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4791455.9524089601</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4239747.18896282</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4484359.5293099601</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17651607.071590401</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18786802.406574398</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16827243.458756499</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17585328.166799098</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43978937.167622298</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>48078474.070004895</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17887796.2998637</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18612934.871098001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45730407.904263198</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46897687.489099205</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30969149.972862501</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32132830.953658901</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17903649.825520899</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18979015.1496762</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26106847.101529699</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28848000.950368501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-9B66-DA49-80B4-CD304A37AC23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'AMP No N Quant NH4 Trial 3'!$A$15:$AK$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>985642.67701372399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1129871.67493084</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2647852.0538084302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2763594.4735738002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1097019.2251414501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>790567.57672824897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1551303.34689819</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1333764.21996763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1428237.58823688</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1495579.2211192402</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1345052.7252873001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1449629.2819548401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1043071.4309700701</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1037512.74009304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>942595.64860002999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1111154.9683473199</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2102328.6832590899</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2199980.0813803398</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2636020.7056592</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2593533.5187846799</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2097782.29613626</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2111432.0747660697</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>103002428.07623699</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>108615341.75410001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>99177879.841733903</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>94079638.884714097</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>95987860.991147608</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100015652.449608</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>221535830.37444502</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>238456812.43094403</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>130192822.07913999</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>138294950.49179101</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>219585584.90902501</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>207598262.48558199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-9B66-DA49-80B4-CD304A37AC23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'AMP No N Quant NH4 Trial 3'!$A$16:$AK$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>385658.98452630395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>354169.90016269498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1788939.56617796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1921177.3212910399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>424317.09582733101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>283379.58406947402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>374563.23161355301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>382849.51400263701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>458858.04902353702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>483831.588021298</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>488858.22783055302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>436837.94745191105</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>381159.87928964198</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>306932.64180990297</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>347170.75425630796</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>381730.96836532297</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>502706.70733570098</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>467453.51204038598</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>474995.65759631799</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>421642.26993739599</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>486438.41460660601</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>417067.52524319803</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>276176.55651627702</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>222471.664443013</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1066564.6157683202</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1077533.1512961499</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1844480.0350069602</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1661990.64643126</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1116128.9195043</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>884733.69622338098</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>164413591.52356601</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>132435790.860103</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>257426458.02037999</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>200750922.85498899</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>210651657.61824703</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>195220649.763385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-9B66-DA49-80B4-CD304A37AC23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1368679727"/>
+        <c:axId val="1369322543"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1368679727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1369322543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1369322543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1368679727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>687916</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>78316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>338667</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62D698B-1DA3-7545-822E-71C8C5A4926E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -789,7 +3764,7 @@
   <dimension ref="A1:AK48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G16"/>
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -857,131 +3832,131 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="29" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="29" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="29" t="s">
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="29" t="s">
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="29" t="s">
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="31"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="28"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="29" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30" t="s">
+      <c r="K3" s="27"/>
+      <c r="L3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="31"/>
-      <c r="N3" s="29" t="s">
+      <c r="M3" s="28"/>
+      <c r="N3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30" t="s">
+      <c r="O3" s="27"/>
+      <c r="P3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30" t="s">
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="31"/>
-      <c r="T3" s="29" t="s">
+      <c r="S3" s="28"/>
+      <c r="T3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30" t="s">
+      <c r="U3" s="27"/>
+      <c r="V3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30" t="s">
+      <c r="W3" s="27"/>
+      <c r="X3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="29" t="s">
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30" t="s">
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30" t="s">
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="29" t="s">
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30" t="s">
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30" t="s">
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="31"/>
+      <c r="AK3" s="28"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -2475,36 +5450,36 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28" t="s">
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="28" t="s">
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="28" t="s">
+      <c r="L18" s="30"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="26"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="28" t="s">
+      <c r="O18" s="30"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="R18" s="26"/>
-      <c r="S18" s="27"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="31"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -3620,11 +6595,11 @@
         <v>96628759.363224</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" ref="P31:P32" si="18">AVERAGE(AD15:AE15)</f>
+        <f>AVERAGE(AD15:AE15)</f>
         <v>98001756.720377803</v>
       </c>
       <c r="Q31" s="2">
-        <f t="shared" ref="Q31:Q32" si="19">AVERAGE(AF15:AG15)</f>
+        <f>AVERAGE(AF15:AG15)</f>
         <v>229996321.40269452</v>
       </c>
       <c r="R31" s="3">
@@ -3706,11 +6681,11 @@
         <v>1753235.3407191101</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" si="18"/>
+        <f>AVERAGE(AD16:AE16)</f>
         <v>1000431.3078638405</v>
       </c>
       <c r="Q32" s="2">
-        <f t="shared" si="19"/>
+        <f>AVERAGE(AF16:AG16)</f>
         <v>148424691.19183451</v>
       </c>
       <c r="R32" s="3">
@@ -3769,30 +6744,30 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="26" t="s">
+      <c r="C34" s="31"/>
+      <c r="D34" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="26" t="s">
+      <c r="E34" s="31"/>
+      <c r="F34" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="26" t="s">
+      <c r="G34" s="31"/>
+      <c r="H34" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="27"/>
-      <c r="J34" s="26" t="s">
+      <c r="I34" s="31"/>
+      <c r="J34" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="27"/>
-      <c r="L34" s="26" t="s">
+      <c r="K34" s="31"/>
+      <c r="L34" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="M34" s="27"/>
+      <c r="M34" s="31"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -3876,43 +6851,43 @@
         <v>0</v>
       </c>
       <c r="B36" s="20">
-        <f t="shared" ref="B36:B48" si="20">AVERAGE(B20:D20)</f>
+        <f t="shared" ref="B36:B48" si="18">AVERAGE(B20:D20)</f>
         <v>11652.272556603353</v>
       </c>
       <c r="C36" s="6">
-        <f t="shared" ref="C36:C48" si="21">STDEV(B20:D20)</f>
+        <f t="shared" ref="C36:C48" si="19">STDEV(B20:D20)</f>
         <v>41.217898512904455</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D48" si="22">AVERAGE(E20:G20)</f>
+        <f t="shared" ref="D36:D48" si="20">AVERAGE(E20:G20)</f>
         <v>10377.153509900416</v>
       </c>
       <c r="E36" s="6">
-        <f t="shared" ref="E36:E48" si="23">STDEV(E20:G20)</f>
+        <f t="shared" ref="E36:E48" si="21">STDEV(E20:G20)</f>
         <v>784.91037733760902</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" ref="F36:F48" si="24">AVERAGE(H20:J20)</f>
+        <f t="shared" ref="F36:F48" si="22">AVERAGE(H20:J20)</f>
         <v>10660.316577933772</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" ref="G36:G48" si="25">STDEV(H20:J20)</f>
+        <f t="shared" ref="G36:G48" si="23">STDEV(H20:J20)</f>
         <v>426.79359621076139</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" ref="H36:H48" si="26">AVERAGE(K20:M20)</f>
+        <f t="shared" ref="H36:H48" si="24">AVERAGE(K20:M20)</f>
         <v>10755.173307325949</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" ref="I36:I48" si="27">STDEV(K20:M20)</f>
+        <f t="shared" ref="I36:I48" si="25">STDEV(K20:M20)</f>
         <v>1477.6933773899264</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" ref="J36:J48" si="28">AVERAGE(N20:P20)</f>
+        <f t="shared" ref="J36:J48" si="26">AVERAGE(N20:P20)</f>
         <v>11251.704964834185</v>
       </c>
       <c r="K36" s="6">
-        <f t="shared" ref="K36:K48" si="29">STDEV(N20:P20)</f>
+        <f t="shared" ref="K36:K48" si="27">STDEV(N20:P20)</f>
         <v>994.42768199287423</v>
       </c>
       <c r="L36" s="2">
@@ -3947,51 +6922,51 @@
         <v>1</v>
       </c>
       <c r="B37" s="20">
+        <f t="shared" si="18"/>
+        <v>15220.248919035866</v>
+      </c>
+      <c r="C37" s="6">
+        <f t="shared" si="19"/>
+        <v>1186.3437471195689</v>
+      </c>
+      <c r="D37" s="2">
         <f t="shared" si="20"/>
-        <v>15220.248919035866</v>
-      </c>
-      <c r="C37" s="6">
+        <v>14254.102349330618</v>
+      </c>
+      <c r="E37" s="6">
         <f t="shared" si="21"/>
-        <v>1186.3437471195689</v>
-      </c>
-      <c r="D37" s="2">
+        <v>1509.5330198017743</v>
+      </c>
+      <c r="F37" s="2">
         <f t="shared" si="22"/>
-        <v>14254.102349330618</v>
-      </c>
-      <c r="E37" s="6">
+        <v>15225.2723499848</v>
+      </c>
+      <c r="G37" s="6">
         <f t="shared" si="23"/>
-        <v>1509.5330198017743</v>
-      </c>
-      <c r="F37" s="2">
+        <v>903.20686576052549</v>
+      </c>
+      <c r="H37" s="3">
         <f t="shared" si="24"/>
-        <v>15225.2723499848</v>
-      </c>
-      <c r="G37" s="6">
+        <v>14466.160971007635</v>
+      </c>
+      <c r="I37" s="6">
         <f t="shared" si="25"/>
-        <v>903.20686576052549</v>
-      </c>
-      <c r="H37" s="3">
+        <v>395.65786465748323</v>
+      </c>
+      <c r="J37" s="2">
         <f t="shared" si="26"/>
-        <v>14466.160971007635</v>
-      </c>
-      <c r="I37" s="6">
+        <v>14489.513856625517</v>
+      </c>
+      <c r="K37" s="6">
         <f t="shared" si="27"/>
-        <v>395.65786465748323</v>
-      </c>
-      <c r="J37" s="2">
-        <f t="shared" si="28"/>
-        <v>14489.513856625517</v>
-      </c>
-      <c r="K37" s="6">
-        <f t="shared" si="29"/>
         <v>1195.3027205777901</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" ref="L37:L48" si="30">AVERAGE(Q21:S21)</f>
+        <f t="shared" ref="L37:L48" si="28">AVERAGE(Q21:S21)</f>
         <v>14674.977162340334</v>
       </c>
       <c r="M37" s="6">
-        <f t="shared" ref="M37:M48" si="31">STDEV(Q21:S21)</f>
+        <f t="shared" ref="M37:M48" si="29">STDEV(Q21:S21)</f>
         <v>250.05278118628956</v>
       </c>
       <c r="N37" s="1"/>
@@ -4018,51 +6993,51 @@
         <v>4</v>
       </c>
       <c r="B38" s="20">
+        <f t="shared" si="18"/>
+        <v>50857.718675945252</v>
+      </c>
+      <c r="C38" s="6">
+        <f t="shared" si="19"/>
+        <v>4882.728917713388</v>
+      </c>
+      <c r="D38" s="2">
         <f t="shared" si="20"/>
-        <v>50857.718675945252</v>
-      </c>
-      <c r="C38" s="6">
+        <v>54940.034131054417</v>
+      </c>
+      <c r="E38" s="6">
         <f t="shared" si="21"/>
-        <v>4882.728917713388</v>
-      </c>
-      <c r="D38" s="2">
+        <v>1239.6324391694627</v>
+      </c>
+      <c r="F38" s="2">
         <f t="shared" si="22"/>
-        <v>54940.034131054417</v>
-      </c>
-      <c r="E38" s="6">
+        <v>51444.291826897883</v>
+      </c>
+      <c r="G38" s="6">
         <f t="shared" si="23"/>
-        <v>1239.6324391694627</v>
-      </c>
-      <c r="F38" s="2">
+        <v>3305.5467278344595</v>
+      </c>
+      <c r="H38" s="3">
         <f t="shared" si="24"/>
-        <v>51444.291826897883</v>
-      </c>
-      <c r="G38" s="6">
+        <v>57743.896826097334</v>
+      </c>
+      <c r="I38" s="6">
         <f t="shared" si="25"/>
-        <v>3305.5467278344595</v>
-      </c>
-      <c r="H38" s="3">
+        <v>1871.1984084134035</v>
+      </c>
+      <c r="J38" s="2">
         <f t="shared" si="26"/>
-        <v>57743.896826097334</v>
-      </c>
-      <c r="I38" s="6">
+        <v>58269.015485777556</v>
+      </c>
+      <c r="K38" s="6">
         <f t="shared" si="27"/>
-        <v>1871.1984084134035</v>
-      </c>
-      <c r="J38" s="2">
+        <v>3816.9271981017087</v>
+      </c>
+      <c r="L38" s="2">
         <f t="shared" si="28"/>
-        <v>58269.015485777556</v>
-      </c>
-      <c r="K38" s="6">
+        <v>55005.609819293801</v>
+      </c>
+      <c r="M38" s="6">
         <f t="shared" si="29"/>
-        <v>3816.9271981017087</v>
-      </c>
-      <c r="L38" s="2">
-        <f t="shared" si="30"/>
-        <v>55005.609819293801</v>
-      </c>
-      <c r="M38" s="6">
-        <f t="shared" si="31"/>
         <v>4715.567835509697</v>
       </c>
       <c r="N38" s="1"/>
@@ -4089,51 +7064,51 @@
         <v>5</v>
       </c>
       <c r="B39" s="20">
+        <f t="shared" si="18"/>
+        <v>71405.174618883859</v>
+      </c>
+      <c r="C39" s="6">
+        <f t="shared" si="19"/>
+        <v>14561.606003628256</v>
+      </c>
+      <c r="D39" s="2">
         <f t="shared" si="20"/>
-        <v>71405.174618883859</v>
-      </c>
-      <c r="C39" s="6">
+        <v>85620.722053858699</v>
+      </c>
+      <c r="E39" s="6">
         <f t="shared" si="21"/>
-        <v>14561.606003628256</v>
-      </c>
-      <c r="D39" s="2">
+        <v>3699.3002947837426</v>
+      </c>
+      <c r="F39" s="2">
         <f t="shared" si="22"/>
-        <v>85620.722053858699</v>
-      </c>
-      <c r="E39" s="6">
+        <v>78815.097682267849</v>
+      </c>
+      <c r="G39" s="6">
         <f t="shared" si="23"/>
-        <v>3699.3002947837426</v>
-      </c>
-      <c r="F39" s="2">
+        <v>8756.8878618314211</v>
+      </c>
+      <c r="H39" s="3">
         <f t="shared" si="24"/>
-        <v>78815.097682267849</v>
-      </c>
-      <c r="G39" s="6">
+        <v>91386.881208497798</v>
+      </c>
+      <c r="I39" s="6">
         <f t="shared" si="25"/>
-        <v>8756.8878618314211</v>
-      </c>
-      <c r="H39" s="3">
+        <v>3106.6968898887299</v>
+      </c>
+      <c r="J39" s="2">
         <f t="shared" si="26"/>
-        <v>91386.881208497798</v>
-      </c>
-      <c r="I39" s="6">
+        <v>91783.845056712045</v>
+      </c>
+      <c r="K39" s="6">
         <f t="shared" si="27"/>
-        <v>3106.6968898887299</v>
-      </c>
-      <c r="J39" s="2">
+        <v>6796.416531984115</v>
+      </c>
+      <c r="L39" s="2">
         <f t="shared" si="28"/>
-        <v>91783.845056712045</v>
-      </c>
-      <c r="K39" s="6">
+        <v>79407.293896357078</v>
+      </c>
+      <c r="M39" s="6">
         <f t="shared" si="29"/>
-        <v>6796.416531984115</v>
-      </c>
-      <c r="L39" s="2">
-        <f t="shared" si="30"/>
-        <v>79407.293896357078</v>
-      </c>
-      <c r="M39" s="6">
-        <f t="shared" si="31"/>
         <v>1791.6406257279868</v>
       </c>
       <c r="N39" s="1"/>
@@ -4160,51 +7135,51 @@
         <v>7</v>
       </c>
       <c r="B40" s="20">
+        <f t="shared" si="18"/>
+        <v>143150.27576297626</v>
+      </c>
+      <c r="C40" s="6">
+        <f t="shared" si="19"/>
+        <v>59786.072884380032</v>
+      </c>
+      <c r="D40" s="2">
         <f t="shared" si="20"/>
-        <v>143150.27576297626</v>
-      </c>
-      <c r="C40" s="6">
+        <v>190219.69174886498</v>
+      </c>
+      <c r="E40" s="6">
         <f t="shared" si="21"/>
-        <v>59786.072884380032</v>
-      </c>
-      <c r="D40" s="2">
+        <v>4965.5695183953039</v>
+      </c>
+      <c r="F40" s="2">
         <f t="shared" si="22"/>
-        <v>190219.69174886498</v>
-      </c>
-      <c r="E40" s="6">
+        <v>160436.29036393316</v>
+      </c>
+      <c r="G40" s="6">
         <f t="shared" si="23"/>
-        <v>4965.5695183953039</v>
-      </c>
-      <c r="F40" s="2">
+        <v>33721.393176659709</v>
+      </c>
+      <c r="H40" s="3">
         <f t="shared" si="24"/>
-        <v>160436.29036393316</v>
-      </c>
-      <c r="G40" s="6">
+        <v>219165.30707875933</v>
+      </c>
+      <c r="I40" s="6">
         <f t="shared" si="25"/>
-        <v>33721.393176659709</v>
-      </c>
-      <c r="H40" s="3">
+        <v>17301.285981404413</v>
+      </c>
+      <c r="J40" s="2">
         <f t="shared" si="26"/>
-        <v>219165.30707875933</v>
-      </c>
-      <c r="I40" s="6">
+        <v>192476.44452126618</v>
+      </c>
+      <c r="K40" s="6">
         <f t="shared" si="27"/>
-        <v>17301.285981404413</v>
-      </c>
-      <c r="J40" s="2">
+        <v>23186.718474144669</v>
+      </c>
+      <c r="L40" s="2">
         <f t="shared" si="28"/>
-        <v>192476.44452126618</v>
-      </c>
-      <c r="K40" s="6">
+        <v>152551.98875418917</v>
+      </c>
+      <c r="M40" s="6">
         <f t="shared" si="29"/>
-        <v>23186.718474144669</v>
-      </c>
-      <c r="L40" s="2">
-        <f t="shared" si="30"/>
-        <v>152551.98875418917</v>
-      </c>
-      <c r="M40" s="6">
-        <f t="shared" si="31"/>
         <v>9750.1253733024005</v>
       </c>
       <c r="N40" s="1"/>
@@ -4231,51 +7206,51 @@
         <v>11</v>
       </c>
       <c r="B41" s="20">
+        <f t="shared" si="18"/>
+        <v>591535.5561118219</v>
+      </c>
+      <c r="C41" s="6">
+        <f t="shared" si="19"/>
+        <v>378333.13998481369</v>
+      </c>
+      <c r="D41" s="2">
         <f t="shared" si="20"/>
-        <v>591535.5561118219</v>
-      </c>
-      <c r="C41" s="6">
+        <v>920613.87053548137</v>
+      </c>
+      <c r="E41" s="6">
         <f t="shared" si="21"/>
-        <v>378333.13998481369</v>
-      </c>
-      <c r="D41" s="2">
+        <v>26322.900099452047</v>
+      </c>
+      <c r="F41" s="2">
         <f t="shared" si="22"/>
-        <v>920613.87053548137</v>
-      </c>
-      <c r="E41" s="6">
+        <v>759627.64395965263</v>
+      </c>
+      <c r="G41" s="6">
         <f t="shared" si="23"/>
-        <v>26322.900099452047</v>
-      </c>
-      <c r="F41" s="2">
+        <v>215378.27984009279</v>
+      </c>
+      <c r="H41" s="3">
         <f t="shared" si="24"/>
-        <v>759627.64395965263</v>
-      </c>
-      <c r="G41" s="6">
+        <v>1089931.5448948396</v>
+      </c>
+      <c r="I41" s="6">
         <f t="shared" si="25"/>
-        <v>215378.27984009279</v>
-      </c>
-      <c r="H41" s="3">
+        <v>83791.913811040067</v>
+      </c>
+      <c r="J41" s="2">
         <f t="shared" si="26"/>
-        <v>1089931.5448948396</v>
-      </c>
-      <c r="I41" s="6">
+        <v>931162.32082044857</v>
+      </c>
+      <c r="K41" s="6">
         <f t="shared" si="27"/>
-        <v>83791.913811040067</v>
-      </c>
-      <c r="J41" s="2">
+        <v>173528.10452178371</v>
+      </c>
+      <c r="L41" s="2">
         <f t="shared" si="28"/>
-        <v>931162.32082044857</v>
-      </c>
-      <c r="K41" s="6">
+        <v>731154.90330456803</v>
+      </c>
+      <c r="M41" s="6">
         <f t="shared" si="29"/>
-        <v>173528.10452178371</v>
-      </c>
-      <c r="L41" s="2">
-        <f t="shared" si="30"/>
-        <v>731154.90330456803</v>
-      </c>
-      <c r="M41" s="6">
-        <f t="shared" si="31"/>
         <v>97601.862541296578</v>
       </c>
       <c r="N41" s="1"/>
@@ -4302,51 +7277,51 @@
         <v>12</v>
       </c>
       <c r="B42" s="20">
+        <f t="shared" si="18"/>
+        <v>1085330.0987141205</v>
+      </c>
+      <c r="C42" s="6">
+        <f t="shared" si="19"/>
+        <v>776623.20992151753</v>
+      </c>
+      <c r="D42" s="2">
         <f t="shared" si="20"/>
-        <v>1085330.0987141205</v>
-      </c>
-      <c r="C42" s="6">
+        <v>1758977.0852593749</v>
+      </c>
+      <c r="E42" s="6">
         <f t="shared" si="21"/>
-        <v>776623.20992151753</v>
-      </c>
-      <c r="D42" s="2">
+        <v>9697.3027136086566</v>
+      </c>
+      <c r="F42" s="2">
         <f t="shared" si="22"/>
-        <v>1758977.0852593749</v>
-      </c>
-      <c r="E42" s="6">
+        <v>1378552.1930977122</v>
+      </c>
+      <c r="G42" s="6">
         <f t="shared" si="23"/>
-        <v>9697.3027136086566</v>
-      </c>
-      <c r="F42" s="2">
+        <v>489693.80573411315</v>
+      </c>
+      <c r="H42" s="3">
         <f t="shared" si="24"/>
-        <v>1378552.1930977122</v>
-      </c>
-      <c r="G42" s="6">
+        <v>2241573.4062840366</v>
+      </c>
+      <c r="I42" s="6">
         <f t="shared" si="25"/>
-        <v>489693.80573411315</v>
-      </c>
-      <c r="H42" s="3">
+        <v>158388.36457954143</v>
+      </c>
+      <c r="J42" s="2">
         <f t="shared" si="26"/>
-        <v>2241573.4062840366</v>
-      </c>
-      <c r="I42" s="6">
+        <v>1851918.2622341185</v>
+      </c>
+      <c r="K42" s="6">
         <f t="shared" si="27"/>
-        <v>158388.36457954143</v>
-      </c>
-      <c r="J42" s="2">
+        <v>595511.07949185197</v>
+      </c>
+      <c r="L42" s="2">
         <f t="shared" si="28"/>
-        <v>1851918.2622341185</v>
-      </c>
-      <c r="K42" s="6">
+        <v>1308984.3556250867</v>
+      </c>
+      <c r="M42" s="6">
         <f t="shared" si="29"/>
-        <v>595511.07949185197</v>
-      </c>
-      <c r="L42" s="2">
-        <f t="shared" si="30"/>
-        <v>1308984.3556250867</v>
-      </c>
-      <c r="M42" s="6">
-        <f t="shared" si="31"/>
         <v>179826.33182514325</v>
       </c>
       <c r="N42" s="1"/>
@@ -4373,51 +7348,51 @@
         <v>13</v>
       </c>
       <c r="B43" s="20">
+        <f t="shared" si="18"/>
+        <v>1767890.0945814736</v>
+      </c>
+      <c r="C43" s="6">
+        <f t="shared" si="19"/>
+        <v>1321175.1464042668</v>
+      </c>
+      <c r="D43" s="2">
         <f t="shared" si="20"/>
-        <v>1767890.0945814736</v>
-      </c>
-      <c r="C43" s="6">
+        <v>2633419.434803145</v>
+      </c>
+      <c r="E43" s="6">
         <f t="shared" si="21"/>
-        <v>1321175.1464042668</v>
-      </c>
-      <c r="D43" s="2">
+        <v>130801.49485750395</v>
+      </c>
+      <c r="F43" s="2">
         <f t="shared" si="22"/>
-        <v>2633419.434803145</v>
-      </c>
-      <c r="E43" s="6">
+        <v>2019341.6713049083</v>
+      </c>
+      <c r="G43" s="6">
         <f t="shared" si="23"/>
-        <v>130801.49485750395</v>
-      </c>
-      <c r="F43" s="2">
+        <v>737215.60072258359</v>
+      </c>
+      <c r="H43" s="3">
         <f t="shared" si="24"/>
-        <v>2019341.6713049083</v>
-      </c>
-      <c r="G43" s="6">
+        <v>3373883.8867989448</v>
+      </c>
+      <c r="I43" s="6">
         <f t="shared" si="25"/>
-        <v>737215.60072258359</v>
-      </c>
-      <c r="H43" s="3">
+        <v>201464.88421805375</v>
+      </c>
+      <c r="J43" s="2">
         <f t="shared" si="26"/>
-        <v>3373883.8867989448</v>
-      </c>
-      <c r="I43" s="6">
+        <v>2472234.1381866201</v>
+      </c>
+      <c r="K43" s="6">
         <f t="shared" si="27"/>
-        <v>201464.88421805375</v>
-      </c>
-      <c r="J43" s="2">
+        <v>806935.2619984661</v>
+      </c>
+      <c r="L43" s="2">
         <f t="shared" si="28"/>
-        <v>2472234.1381866201</v>
-      </c>
-      <c r="K43" s="6">
+        <v>1794616.7095791299</v>
+      </c>
+      <c r="M43" s="6">
         <f t="shared" si="29"/>
-        <v>806935.2619984661</v>
-      </c>
-      <c r="L43" s="2">
-        <f t="shared" si="30"/>
-        <v>1794616.7095791299</v>
-      </c>
-      <c r="M43" s="6">
-        <f t="shared" si="31"/>
         <v>329185.25319915381</v>
       </c>
       <c r="N43" s="1"/>
@@ -4444,51 +7419,51 @@
         <v>15</v>
       </c>
       <c r="B44" s="20">
+        <f t="shared" si="18"/>
+        <v>3932694.8075378886</v>
+      </c>
+      <c r="C44" s="6">
+        <f t="shared" si="19"/>
+        <v>3139173.9159320658</v>
+      </c>
+      <c r="D44" s="2">
         <f t="shared" si="20"/>
-        <v>3932694.8075378886</v>
-      </c>
-      <c r="C44" s="6">
+        <v>5319132.0076788412</v>
+      </c>
+      <c r="E44" s="6">
         <f t="shared" si="21"/>
-        <v>3139173.9159320658</v>
-      </c>
-      <c r="D44" s="2">
+        <v>771935.48456015228</v>
+      </c>
+      <c r="F44" s="2">
         <f t="shared" si="22"/>
-        <v>5319132.0076788412</v>
-      </c>
-      <c r="E44" s="6">
+        <v>4699382.5075817266</v>
+      </c>
+      <c r="G44" s="6">
         <f t="shared" si="23"/>
-        <v>771935.48456015228</v>
-      </c>
-      <c r="F44" s="2">
+        <v>1873175.9301225001</v>
+      </c>
+      <c r="H44" s="3">
         <f t="shared" si="24"/>
-        <v>4699382.5075817266</v>
-      </c>
-      <c r="G44" s="6">
+        <v>6867326.7358078388</v>
+      </c>
+      <c r="I44" s="6">
         <f t="shared" si="25"/>
-        <v>1873175.9301225001</v>
-      </c>
-      <c r="H44" s="3">
+        <v>1371149.9726209519</v>
+      </c>
+      <c r="J44" s="2">
         <f t="shared" si="26"/>
-        <v>6867326.7358078388</v>
-      </c>
-      <c r="I44" s="6">
+        <v>5652490.0876293331</v>
+      </c>
+      <c r="K44" s="6">
         <f t="shared" si="27"/>
-        <v>1371149.9726209519</v>
-      </c>
-      <c r="J44" s="2">
+        <v>1760521.7467421391</v>
+      </c>
+      <c r="L44" s="2">
         <f t="shared" si="28"/>
-        <v>5652490.0876293331</v>
-      </c>
-      <c r="K44" s="6">
+        <v>4219648.5320997881</v>
+      </c>
+      <c r="M44" s="6">
         <f t="shared" si="29"/>
-        <v>1760521.7467421391</v>
-      </c>
-      <c r="L44" s="2">
-        <f t="shared" si="30"/>
-        <v>4219648.5320997881</v>
-      </c>
-      <c r="M44" s="6">
-        <f t="shared" si="31"/>
         <v>779775.64514422847</v>
       </c>
       <c r="N44" s="1"/>
@@ -4515,51 +7490,51 @@
         <v>18</v>
       </c>
       <c r="B45" s="20">
+        <f t="shared" si="18"/>
+        <v>3854571.7429882749</v>
+      </c>
+      <c r="C45" s="6">
+        <f t="shared" si="19"/>
+        <v>2614790.2841148293</v>
+      </c>
+      <c r="D45" s="2">
         <f t="shared" si="20"/>
-        <v>3854571.7429882749</v>
-      </c>
-      <c r="C45" s="6">
+        <v>4962517.418533707</v>
+      </c>
+      <c r="E45" s="6">
         <f t="shared" si="21"/>
-        <v>2614790.2841148293</v>
-      </c>
-      <c r="D45" s="2">
+        <v>1390926.7087134272</v>
+      </c>
+      <c r="F45" s="2">
         <f t="shared" si="22"/>
-        <v>4962517.418533707</v>
-      </c>
-      <c r="E45" s="6">
+        <v>4493138.472448498</v>
+      </c>
+      <c r="G45" s="6">
         <f t="shared" si="23"/>
-        <v>1390926.7087134272</v>
-      </c>
-      <c r="F45" s="2">
+        <v>417272.78307852929</v>
+      </c>
+      <c r="H45" s="3">
         <f t="shared" si="24"/>
-        <v>4493138.472448498</v>
-      </c>
-      <c r="G45" s="6">
+        <v>16301549.106458373</v>
+      </c>
+      <c r="I45" s="6">
         <f t="shared" si="25"/>
-        <v>417272.78307852929</v>
-      </c>
-      <c r="H45" s="3">
+        <v>2143267.5642403471</v>
+      </c>
+      <c r="J45" s="2">
         <f t="shared" si="26"/>
-        <v>16301549.106458373</v>
-      </c>
-      <c r="I45" s="6">
+        <v>21105894.691415053</v>
+      </c>
+      <c r="K45" s="6">
         <f t="shared" si="27"/>
-        <v>2143267.5642403471</v>
-      </c>
-      <c r="J45" s="2">
+        <v>8057639.2394597037</v>
+      </c>
+      <c r="L45" s="2">
         <f t="shared" si="28"/>
-        <v>21105894.691415053</v>
-      </c>
-      <c r="K45" s="6">
+        <v>11774534.3631042</v>
+      </c>
+      <c r="M45" s="6">
         <f t="shared" si="29"/>
-        <v>8057639.2394597037</v>
-      </c>
-      <c r="L45" s="2">
-        <f t="shared" si="30"/>
-        <v>11774534.3631042</v>
-      </c>
-      <c r="M45" s="6">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N45" s="1"/>
@@ -4586,51 +7561,51 @@
         <v>19</v>
       </c>
       <c r="B46" s="20">
+        <f t="shared" si="18"/>
+        <v>4226297.0484323315</v>
+      </c>
+      <c r="C46" s="6">
+        <f t="shared" si="19"/>
+        <v>3174595.248270853</v>
+      </c>
+      <c r="D46" s="2">
         <f t="shared" si="20"/>
-        <v>4226297.0484323315</v>
-      </c>
-      <c r="C46" s="6">
+        <v>5241671.3580058059</v>
+      </c>
+      <c r="E46" s="6">
         <f t="shared" si="21"/>
-        <v>3174595.248270853</v>
-      </c>
-      <c r="D46" s="2">
+        <v>1533045.6487883111</v>
+      </c>
+      <c r="F46" s="2">
         <f t="shared" si="22"/>
-        <v>5241671.3580058059</v>
-      </c>
-      <c r="E46" s="6">
+        <v>4609634.2072862899</v>
+      </c>
+      <c r="G46" s="6">
         <f t="shared" si="23"/>
-        <v>1533045.6487883111</v>
-      </c>
-      <c r="F46" s="2">
+        <v>295824.4455558281</v>
+      </c>
+      <c r="H46" s="3">
         <f t="shared" si="24"/>
-        <v>4609634.2072862899</v>
-      </c>
-      <c r="G46" s="6">
+        <v>17712745.275930099</v>
+      </c>
+      <c r="I46" s="6">
         <f t="shared" si="25"/>
-        <v>295824.4455558281</v>
-      </c>
-      <c r="H46" s="3">
+        <v>716241.84158218023</v>
+      </c>
+      <c r="J46" s="2">
         <f t="shared" si="26"/>
-        <v>17712745.275930099</v>
-      </c>
-      <c r="I46" s="6">
+        <v>36864372.966991879</v>
+      </c>
+      <c r="K46" s="6">
         <f t="shared" si="27"/>
-        <v>716241.84158218023</v>
-      </c>
-      <c r="J46" s="2">
+        <v>16120834.597642913</v>
+      </c>
+      <c r="L46" s="2">
         <f t="shared" si="28"/>
-        <v>36864372.966991879</v>
-      </c>
-      <c r="K46" s="6">
+        <v>25823248.992269445</v>
+      </c>
+      <c r="M46" s="6">
         <f t="shared" si="29"/>
-        <v>16120834.597642913</v>
-      </c>
-      <c r="L46" s="2">
-        <f t="shared" si="30"/>
-        <v>25823248.992269445</v>
-      </c>
-      <c r="M46" s="6">
-        <f t="shared" si="31"/>
         <v>6709545.7626614058</v>
       </c>
       <c r="N46" s="1"/>
@@ -4657,51 +7632,51 @@
         <v>25</v>
       </c>
       <c r="B47" s="20">
+        <f t="shared" si="18"/>
+        <v>1569091.2801994157</v>
+      </c>
+      <c r="C47" s="6">
+        <f t="shared" si="19"/>
+        <v>986000.06842160074</v>
+      </c>
+      <c r="D47" s="2">
         <f t="shared" si="20"/>
-        <v>1569091.2801994157</v>
-      </c>
-      <c r="C47" s="6">
+        <v>1433927.7305773466</v>
+      </c>
+      <c r="E47" s="6">
         <f t="shared" si="21"/>
-        <v>986000.06842160074</v>
-      </c>
-      <c r="D47" s="2">
+        <v>33132.845171040019</v>
+      </c>
+      <c r="F47" s="2">
         <f t="shared" si="22"/>
-        <v>1433927.7305773466</v>
-      </c>
-      <c r="E47" s="6">
+        <v>1406107.2587749816</v>
+      </c>
+      <c r="G47" s="6">
         <f t="shared" si="23"/>
-        <v>33132.845171040019</v>
-      </c>
-      <c r="F47" s="2">
+        <v>645264.60828358412</v>
+      </c>
+      <c r="H47" s="3">
         <f t="shared" si="24"/>
-        <v>1406107.2587749816</v>
-      </c>
-      <c r="G47" s="6">
+        <v>2359692.1488365522</v>
+      </c>
+      <c r="I47" s="6">
         <f t="shared" si="25"/>
-        <v>645264.60828358412</v>
-      </c>
-      <c r="H47" s="3">
+        <v>360744.61477706407</v>
+      </c>
+      <c r="J47" s="2">
         <f t="shared" si="26"/>
-        <v>2359692.1488365522</v>
-      </c>
-      <c r="I47" s="6">
+        <v>100146466.9995901</v>
+      </c>
+      <c r="K47" s="6">
         <f t="shared" si="27"/>
-        <v>360744.61477706407</v>
-      </c>
-      <c r="J47" s="2">
+        <v>4951617.202862638</v>
+      </c>
+      <c r="L47" s="2">
         <f t="shared" si="28"/>
-        <v>100146466.9995901</v>
-      </c>
-      <c r="K47" s="6">
+        <v>192610710.4618212</v>
+      </c>
+      <c r="M47" s="6">
         <f t="shared" si="29"/>
-        <v>4951617.202862638</v>
-      </c>
-      <c r="L47" s="2">
-        <f t="shared" si="30"/>
-        <v>192610710.4618212</v>
-      </c>
-      <c r="M47" s="6">
-        <f t="shared" si="31"/>
         <v>51208306.839265525</v>
       </c>
       <c r="N47" s="1"/>
@@ -4728,56 +7703,76 @@
         <v>34</v>
       </c>
       <c r="B48" s="20">
+        <f t="shared" si="18"/>
+        <v>859607.0753424674</v>
+      </c>
+      <c r="C48" s="6">
+        <f t="shared" si="19"/>
+        <v>862123.59904872591</v>
+      </c>
+      <c r="D48" s="2">
         <f t="shared" si="20"/>
-        <v>859607.0753424674</v>
-      </c>
-      <c r="C48" s="6">
+        <v>437633.09299058159</v>
+      </c>
+      <c r="E48" s="6">
         <f t="shared" si="21"/>
-        <v>862123.59904872591</v>
-      </c>
-      <c r="D48" s="2">
+        <v>51208.567374176957</v>
+      </c>
+      <c r="F48" s="2">
         <f t="shared" si="22"/>
-        <v>437633.09299058159</v>
-      </c>
-      <c r="E48" s="6">
+        <v>397859.07718287717</v>
+      </c>
+      <c r="G48" s="6">
         <f t="shared" si="23"/>
-        <v>51208.567374176957</v>
-      </c>
-      <c r="F48" s="2">
+        <v>76221.508227696409</v>
+      </c>
+      <c r="H48" s="3">
         <f t="shared" si="24"/>
-        <v>397859.07718287717</v>
-      </c>
-      <c r="G48" s="6">
+        <v>350538.54020227352</v>
+      </c>
+      <c r="I48" s="6">
         <f t="shared" si="25"/>
-        <v>76221.508227696409</v>
-      </c>
-      <c r="H48" s="3">
+        <v>143138.81922159973</v>
+      </c>
+      <c r="J48" s="2">
         <f t="shared" si="26"/>
-        <v>350538.54020227352</v>
-      </c>
-      <c r="I48" s="6">
+        <v>1275238.5107050617</v>
+      </c>
+      <c r="K48" s="6">
         <f t="shared" si="27"/>
-        <v>143138.81922159973</v>
-      </c>
-      <c r="J48" s="2">
+        <v>415503.30493723409</v>
+      </c>
+      <c r="L48" s="2">
         <f t="shared" si="28"/>
-        <v>1275238.5107050617</v>
-      </c>
-      <c r="K48" s="6">
+        <v>193483178.44011167</v>
+      </c>
+      <c r="M48" s="6">
         <f t="shared" si="29"/>
-        <v>415503.30493723409</v>
-      </c>
-      <c r="L48" s="2">
-        <f t="shared" si="30"/>
-        <v>193483178.44011167</v>
-      </c>
-      <c r="M48" s="6">
-        <f t="shared" si="31"/>
         <v>41154456.009057194</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AK2"/>
     <mergeCell ref="L3:M3"/>
@@ -4794,28 +7789,9 @@
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4831,131 +7807,131 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="10"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="29" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="29" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="29" t="s">
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="29" t="s">
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="29" t="s">
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="31"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="28"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="29" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="29" t="s">
+      <c r="M2" s="28"/>
+      <c r="N2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30" t="s">
+      <c r="O2" s="27"/>
+      <c r="P2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30" t="s">
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="31"/>
-      <c r="T2" s="29" t="s">
+      <c r="S2" s="28"/>
+      <c r="T2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30" t="s">
+      <c r="U2" s="27"/>
+      <c r="V2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30" t="s">
+      <c r="W2" s="27"/>
+      <c r="X2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="29" t="s">
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30" t="s">
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30" t="s">
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="29" t="s">
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30" t="s">
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30" t="s">
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AK2" s="31"/>
+      <c r="AK2" s="28"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
@@ -6416,6 +9392,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="Z1:AE1"/>
     <mergeCell ref="AF1:AK1"/>
     <mergeCell ref="L2:M2"/>
@@ -6432,14 +9416,6 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
